--- a/docs/3369975a9851e6fd41a0ae6865456662040af596/Project_Info/Status Assumptions To do.xlsx
+++ b/docs/3369975a9851e6fd41a0ae6865456662040af596/Project_Info/Status Assumptions To do.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tcarruth\Documents\GitHub\csrf_hh_data\Project Info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\csrf_hh_data\Project Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FCE416D-9A11-457A-A75D-D734EF70FFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18223" yWindow="-8700" windowWidth="13937" windowHeight="7740" activeTab="4"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="6" r:id="rId1"/>
@@ -19,6 +20,7 @@
     <sheet name="Manila_Clam" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>Assumptions</t>
   </si>
@@ -48,39 +50,15 @@
     <t>Stat. Area is the biological unit</t>
   </si>
   <si>
-    <t>Analysis of similarity in age structure among sub beds / bed within Stat Area (ANOVA, within / among variance)</t>
-  </si>
-  <si>
-    <t>80% CV on CPUE indices</t>
-  </si>
-  <si>
-    <t>Vague-ish M prior of 0.03 with CV of 40%</t>
-  </si>
-  <si>
-    <t>Process annual catches for 2021 and 2022 (so the exploitaiton series matches the recent biomass estimate in 2022)</t>
-  </si>
-  <si>
-    <t>2022 Biomass estimate is actually 2020 (last year of historical catches)</t>
-  </si>
-  <si>
-    <t>Quantify variance in biomass estimate (properly!)</t>
-  </si>
-  <si>
     <t>#</t>
   </si>
   <si>
-    <t>MSY calcs</t>
-  </si>
-  <si>
     <t>OM report for an area with refs</t>
   </si>
   <si>
     <t>Make a coastwide OM by aggregating data</t>
   </si>
   <si>
-    <t>Remake all OMs with resample  = T</t>
-  </si>
-  <si>
     <t>Similar diameter-wet weight relationship among Stat areas</t>
   </si>
   <si>
@@ -138,9 +116,6 @@
     <t>Dynamic selectivity calculations (might be a better example in urchin / hake)</t>
   </si>
   <si>
-    <t>Check Harvest Header Key</t>
-  </si>
-  <si>
     <t>Check Harvest header key</t>
   </si>
   <si>
@@ -150,9 +125,6 @@
     <t>Add correct coords to OM objects by QMA</t>
   </si>
   <si>
-    <t>check management intervals in OM</t>
-  </si>
-  <si>
     <t>Check management intervals in OM</t>
   </si>
   <si>
@@ -181,12 +153,27 @@
   </si>
   <si>
     <t>can evalute survey frequency (2 - 4 years currently)</t>
+  </si>
+  <si>
+    <t>Somatic Growth follows a von-B growth equation</t>
+  </si>
+  <si>
+    <t>Maturity is from 2003 study</t>
+  </si>
+  <si>
+    <t>Informative M prior of 0.05 with CV of 15%</t>
+  </si>
+  <si>
+    <t>Absolute biomass estimates are only final historical year</t>
+  </si>
+  <si>
+    <t>Make generic management performance outputs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -241,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -261,6 +248,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,160 +531,160 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.3046875" customWidth="1"/>
-    <col min="2" max="2" width="61.23046875" customWidth="1"/>
+    <col min="1" max="1" width="11.3125" customWidth="1"/>
+    <col min="2" max="2" width="61.20703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" ht="18.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4"/>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6">
         <v>2</v>
       </c>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6">
         <v>3</v>
       </c>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6">
         <v>4</v>
       </c>
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="6">
         <v>5</v>
       </c>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6">
         <v>6</v>
       </c>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="6">
         <v>7</v>
       </c>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6">
         <v>8</v>
       </c>
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="6">
         <v>9</v>
       </c>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="6">
         <v>10</v>
       </c>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="6">
         <v>11</v>
       </c>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="6">
         <v>12</v>
       </c>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="6">
         <v>13</v>
       </c>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="6">
         <v>14</v>
       </c>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6">
         <v>15</v>
       </c>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="6">
         <v>16</v>
       </c>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="6">
         <v>17</v>
       </c>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="6">
         <v>18</v>
       </c>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="6">
         <v>19</v>
       </c>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="6">
         <v>20</v>
       </c>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="3"/>
     </row>
   </sheetData>
@@ -703,23 +693,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="3.23046875" customWidth="1"/>
-    <col min="2" max="2" width="58.765625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="96.765625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.20703125" customWidth="1"/>
+    <col min="2" max="2" width="54.5234375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="48.41796875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
-        <v>12</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -728,7 +718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -736,10 +726,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -747,10 +737,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -758,10 +748,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -769,65 +759,46 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="B9" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="6"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -835,23 +806,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="3.23046875" customWidth="1"/>
-    <col min="2" max="2" width="55.15234375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="65.69140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.20703125" customWidth="1"/>
+    <col min="2" max="2" width="55.15625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="65.68359375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -860,7 +831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -868,58 +839,58 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -928,23 +899,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="3.23046875" customWidth="1"/>
-    <col min="2" max="2" width="50.765625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="73.53515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.20703125" customWidth="1"/>
+    <col min="2" max="2" width="50.734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="73.5234375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -953,121 +924,121 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6"/>
       <c r="C7" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="6"/>
       <c r="C8" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6">
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="6">
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6">
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="6">
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="6">
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="6">
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="6">
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1076,22 +1047,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="48.84375" customWidth="1"/>
+    <col min="2" max="2" width="48.83984375" customWidth="1"/>
     <col min="3" max="3" width="57" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1100,51 +1071,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/docs/3369975a9851e6fd41a0ae6865456662040af596/Project_Info/Status Assumptions To do.xlsx
+++ b/docs/3369975a9851e6fd41a0ae6865456662040af596/Project_Info/Status Assumptions To do.xlsx
@@ -8,19 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\csrf_hh_data\Project Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FCE416D-9A11-457A-A75D-D734EF70FFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43820C7D-7109-4B92-B105-6659E0F12D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1698" yWindow="1764" windowWidth="18228" windowHeight="10818" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="6" r:id="rId1"/>
     <sheet name="Geoduck" sheetId="1" r:id="rId2"/>
-    <sheet name="Green_Urchin" sheetId="3" r:id="rId3"/>
-    <sheet name="Sea_Cucumber" sheetId="4" r:id="rId4"/>
-    <sheet name="Manila_Clam" sheetId="5" r:id="rId5"/>
+    <sheet name="Manila_Clam" sheetId="5" r:id="rId3"/>
+    <sheet name="Green_Urchin" sheetId="3" r:id="rId4"/>
+    <sheet name="Sea_Cucumber" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
   <si>
     <t>Assumptions</t>
   </si>
@@ -53,9 +52,6 @@
     <t>#</t>
   </si>
   <si>
-    <t>OM report for an area with refs</t>
-  </si>
-  <si>
     <t>Make a coastwide OM by aggregating data</t>
   </si>
   <si>
@@ -74,9 +70,6 @@
     <t>Distribution for L50 needed (or suitable range)</t>
   </si>
   <si>
-    <t>Numbers instead of biomass dynamics</t>
-  </si>
-  <si>
     <t>Knife edge weight / length at age of 1 at age 2+</t>
   </si>
   <si>
@@ -86,30 +79,6 @@
     <t>If possible, derive a (vague) model for size (age) selectivity given size (age) availability</t>
   </si>
   <si>
-    <t>Need N/time dive density estimates</t>
-  </si>
-  <si>
-    <t>Need QMA conversion table MA-Subsarea definitions</t>
-  </si>
-  <si>
-    <t>current biomass estimates by subarea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exploitation rate (ER) by subarea </t>
-  </si>
-  <si>
-    <t>precautionary density estimate by subarea (PDE)</t>
-  </si>
-  <si>
-    <t>shoreline length (SL) by subarea</t>
-  </si>
-  <si>
-    <t>(optionally) average split weight (ASW) by subarea</t>
-  </si>
-  <si>
-    <t>QMA is the biological unit</t>
-  </si>
-  <si>
     <t>Include density index series to allow for testing of density based opening - closure rules (i.e. based on sea cucumbers per meter of shoreline)</t>
   </si>
   <si>
@@ -134,27 +103,6 @@
     <t>Update mapping code to make pub quality maps</t>
   </si>
   <si>
-    <t>Alternative (2-stanza) growth model needed to deal with age 1 to age 3</t>
-  </si>
-  <si>
-    <t>Weird weight-length relationship data in biodat for SA 17 and SA 15</t>
-  </si>
-  <si>
-    <t>Weight - length misfit to SA 18</t>
-  </si>
-  <si>
-    <t>Harvest data?</t>
-  </si>
-  <si>
-    <t>Effort data?</t>
-  </si>
-  <si>
-    <t>Scale-free size depletion model assuming constant effort and logistic selectivity</t>
-  </si>
-  <si>
-    <t>can evalute survey frequency (2 - 4 years currently)</t>
-  </si>
-  <si>
     <t>Somatic Growth follows a von-B growth equation</t>
   </si>
   <si>
@@ -168,13 +116,115 @@
   </si>
   <si>
     <t>Make generic management performance outputs</t>
+  </si>
+  <si>
+    <t>Test open-closure rules</t>
+  </si>
+  <si>
+    <t>Work on calculation of coast-wide LRP</t>
+  </si>
+  <si>
+    <t>Test efficacy of small-scale spatial closures</t>
+  </si>
+  <si>
+    <t>Robustness (M, unreported catches, somatic growth, rec strength)</t>
+  </si>
+  <si>
+    <t>Logistic (length - based) selectivity for the fleet</t>
+  </si>
+  <si>
+    <t>Logistic (age-based) selectivity for the survey</t>
+  </si>
+  <si>
+    <t>Equilibrium catches are 75% the average of 1999-2003</t>
+  </si>
+  <si>
+    <t>Investigate sensitivity to use of somatic growth derived from biological sampling (as opposed to annulus data)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensitivity alternative assumptions about 'spool-up' equilibrium catches. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demonstrate robustness of current size limit management (much greater than size at maturity). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investigate use of effort slip data (managers). </t>
+  </si>
+  <si>
+    <t>Sketch historical catch patterns (expert judgment)</t>
+  </si>
+  <si>
+    <t>Tactical management options at the beach-level. E.g. open/closure rules based on density</t>
+  </si>
+  <si>
+    <t>Robustness to winter-kill / summar-kill events</t>
+  </si>
+  <si>
+    <t>Develop OMs at varying spatial scales (e.g. beach)</t>
+  </si>
+  <si>
+    <t>Investigate possible uses of ICMP and its requirements (precision etc)</t>
+  </si>
+  <si>
+    <t>Subarea is the biological unit</t>
+  </si>
+  <si>
+    <t>Density time series CV is 10%</t>
+  </si>
+  <si>
+    <t>Numbers time series CV is 10%</t>
+  </si>
+  <si>
+    <t>Model includes a k (growth rate) for fecundity at age (cubic on inplied growht) between 0.3 and 0.5</t>
+  </si>
+  <si>
+    <t>Can evalute survey frequency (2 - 4 years currently)</t>
+  </si>
+  <si>
+    <t>What density per subarea is indicative of overfishing </t>
+  </si>
+  <si>
+    <t>How precautionary are current management approaches?</t>
+  </si>
+  <si>
+    <t>What is the conservation benefit of no-take subareas?</t>
+  </si>
+  <si>
+    <t>Is the 2.5 C/m shoreline reopening threshold important to conservation?</t>
+  </si>
+  <si>
+    <t>Which areas are currently most at risk?</t>
+  </si>
+  <si>
+    <t>What is the relative performance of Control points based on unfished density (by subarea) rather than a nominal density (e.g. x c/m-sl)</t>
+  </si>
+  <si>
+    <t>What is the relative performance of alternative control points?</t>
+  </si>
+  <si>
+    <t>Subarea control points - how well do these achieve overall (summed) LRP performance across multiple areas?</t>
+  </si>
+  <si>
+    <t>15 cm ‘pencil’ effect (is there some other reference that is better for fishermen?)</t>
+  </si>
+  <si>
+    <t>Modedl is numbers based (somatic growth, maturity, length-weight are unknown and variable) rather than biomass-based.</t>
+  </si>
+  <si>
+    <t>Robustness of size limit to changes in predators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opening / closures rules based on abundance.  </t>
+  </si>
+  <si>
+    <t>Managers / scientists to select a range of sub areas that span a range of exploitation, location and environmental conditions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +244,13 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -228,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -251,6 +308,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -546,7 +609,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1"/>
     </row>
@@ -567,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -696,7 +759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -726,7 +789,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -737,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -759,7 +822,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -767,7 +830,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>43</v>
+        <v>26</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -775,15 +841,21 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -791,7 +863,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -806,11 +878,124 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="48.83984375" customWidth="1"/>
+    <col min="3" max="3" width="57" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -839,7 +1024,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -847,10 +1032,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -858,7 +1043,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -866,7 +1051,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -874,7 +1059,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -882,7 +1067,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -890,7 +1075,15 @@
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>31</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -898,18 +1091,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="3.20703125" customWidth="1"/>
-    <col min="2" max="2" width="50.734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="54.89453125" style="3" customWidth="1"/>
     <col min="3" max="3" width="73.5234375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -924,26 +1117,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -951,172 +1144,138 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>21</v>
+      <c r="B5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="6"/>
-      <c r="C7" s="3" t="s">
-        <v>23</v>
+      <c r="B6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="6"/>
-      <c r="C8" s="3" t="s">
-        <v>24</v>
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="6">
-        <v>7</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>9</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>10</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="6">
-        <v>9</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="6">
-        <v>10</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="6">
-        <v>11</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>31</v>
+        <v>13</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="6">
-        <v>12</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="2" max="2" width="48.83984375" customWidth="1"/>
-    <col min="3" max="3" width="57" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
-        <v>38</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C20" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
